--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B22FEC-2E2B-4D44-B377-2DA5C36E5EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3113B98B-6724-4789-827E-912892D26025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1030" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -589,26 +589,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>未ログイン時にURLを入力する
+http://localhost:8080/ec-b/updateproduct/complete</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ログイン時にURLを入力する
-http://localhost:8080/ec-b/updateproduct/conplete</t>
+http://localhost:8080/ec-b/updateproduct/complete</t>
     <rPh sb="4" eb="5">
       <t>ジ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未ログイン時にURLを入力する
-http://localhost:8080/ec-b/updateproduct/conplete</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1022,6 +1022,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1031,118 +1037,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1497,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:G25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1514,25 +1514,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,23 +1547,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1576,50 +1576,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1628,20 +1628,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1651,82 +1651,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1738,18 +1738,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1761,18 +1761,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1784,18 +1784,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1807,18 +1807,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1835,63 +1835,63 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="23" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1908,13 +1908,13 @@
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1928,239 +1928,266 @@
       <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-    </row>
-    <row r="24" spans="1:17" ht="28" customHeight="1">
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="1:17" ht="34" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="23" t="s">
+      <c r="C24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-    </row>
-    <row r="25" spans="1:17" ht="34" customHeight="1">
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+    </row>
+    <row r="25" spans="1:17" ht="35.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="55" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2177,42 +2204,15 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3113B98B-6724-4789-827E-912892D26025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97624DE8-5FF7-4B25-AF75-F924E1A4C019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1030" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>作成者</t>
   </si>
@@ -553,62 +553,70 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セキュリティ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未ログイン時ではほかの画面に移動することはできず、ログイン画面にリダイレクトする。</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
+    <t>「商品削除(完了)」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
     <rPh sb="5" eb="6">
-      <t>ジ</t>
+      <t>マエ</t>
     </rPh>
     <rPh sb="11" eb="13">
       <t>ガメン</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「不正な操作です」と表示される</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>未ログイン時にURLを入力する
-http://localhost:8080/ec-b/updateproduct/complete</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/deleteproduct/complete」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン時にURLを入力する
-http://localhost:8080/ec-b/updateproduct/complete</t>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/deleteproduct/complete」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1022,12 +1030,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1070,6 +1072,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,57 +1149,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1498,7 +1506,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C17" sqref="C17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1514,25 +1522,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,23 +1555,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1576,50 +1584,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1628,20 +1636,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="23" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1651,82 +1659,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1738,18 +1746,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1761,18 +1769,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1784,18 +1792,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1807,18 +1815,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1830,68 +1838,68 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="1:17" ht="11">
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+    </row>
+    <row r="14" spans="1:17" ht="23.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="25" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="29"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="25" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1903,18 +1911,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1928,251 +1936,249 @@
       <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="49" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="49" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="49" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="49" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="49" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-    </row>
-    <row r="24" spans="1:17" ht="34" customHeight="1">
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+    </row>
+    <row r="24" spans="1:17" ht="56.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="25" t="s">
+      <c r="C24" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-    </row>
-    <row r="25" spans="1:17" ht="35.5" customHeight="1">
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="1:17" ht="58.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="63"/>
-      <c r="C25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="43" t="s">
+      <c r="C25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="59">
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="C15:G16"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P18:Q18"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97624DE8-5FF7-4B25-AF75-F924E1A4C019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A7089-E0A0-4A41-B062-8EC1E2E7E7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -596,27 +596,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/deleteproduct/complete」を入力</t>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/deleteproduct/complete」を入力</t>
     <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="67" eb="69">
+    <rPh sb="73" eb="75">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/deleteproduct/complete」を入力</t>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/deleteproduct/complete」を入力</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="74" eb="76">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1030,6 +1030,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1040,10 +1052,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1054,6 +1075,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1061,96 +1151,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1522,25 +1522,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,23 +1555,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1584,50 +1584,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1636,20 +1636,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1659,82 +1659,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="58"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1746,18 +1746,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1769,18 +1769,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1792,18 +1792,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1815,18 +1815,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1838,68 +1838,68 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="27"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
     </row>
     <row r="14" spans="1:17" ht="23.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="27"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="23" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1911,18 +1911,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1936,197 +1936,197 @@
       <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="41" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="41" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="41" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="41" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="41" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="56.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="60" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2137,21 +2137,21 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="60" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2160,31 +2160,24 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
@@ -2201,24 +2194,31 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A7089-E0A0-4A41-B062-8EC1E2E7E7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804B60F-8EF1-43EF-BB3F-845C2897F7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>作成者</t>
   </si>
@@ -618,6 +618,27 @@
     </rPh>
     <rPh sb="74" eb="76">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1030,6 +1051,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1041,24 +1080,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1503,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1668,7 +1689,7 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -1728,13 +1749,13 @@
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1751,13 +1772,13 @@
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
       <c r="G9" s="63"/>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1774,13 +1795,13 @@
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="63"/>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1797,13 +1818,13 @@
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="63"/>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1820,13 +1841,13 @@
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="63"/>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1843,43 +1864,43 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="1:17" ht="23.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="27" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="26"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
@@ -1893,13 +1914,13 @@
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1916,13 +1937,13 @@
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1936,13 +1957,13 @@
       <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="33" t="s">
         <v>45</v>
       </c>
@@ -1961,13 +1982,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="33" t="s">
         <v>49</v>
       </c>
@@ -1986,13 +2007,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="33" t="s">
         <v>50</v>
       </c>
@@ -2011,13 +2032,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="33" t="s">
         <v>52</v>
       </c>
@@ -2053,8 +2074,8 @@
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
@@ -2086,13 +2107,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="33" t="s">
         <v>37</v>
       </c>
@@ -2110,23 +2131,23 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2137,29 +2158,54 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
+    <row r="26" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="61">
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="C8:G13"/>
@@ -2206,7 +2252,8 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="H16:L16"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
@@ -2219,6 +2266,7 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B24:B26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804B60F-8EF1-43EF-BB3F-845C2897F7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5286D5E-F264-4710-819D-0E14B103A524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>作成者</t>
   </si>
@@ -639,6 +639,37 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名と書かれていない</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遷移先が違う</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1061,6 +1092,108 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1069,109 +1202,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1526,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:L23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1543,25 +1574,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,23 +1607,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1602,53 +1633,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1657,20 +1690,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="57" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1680,75 +1713,87 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="58"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="23" t="s">
         <v>30</v>
       </c>
@@ -1756,9 +1801,15 @@
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="M8" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
@@ -1767,11 +1818,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="23" t="s">
         <v>31</v>
       </c>
@@ -1779,9 +1830,15 @@
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="M9" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -1790,11 +1847,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="23" t="s">
         <v>32</v>
       </c>
@@ -1802,9 +1859,15 @@
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="M10" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -1813,11 +1876,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
@@ -1825,9 +1888,15 @@
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="M11" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -1836,11 +1905,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="23" t="s">
         <v>34</v>
       </c>
@@ -1848,9 +1917,15 @@
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="M12" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -1859,11 +1934,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="23" t="s">
         <v>35</v>
       </c>
@@ -1871,24 +1946,30 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="25"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="M13" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:17" ht="23.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="23" t="s">
         <v>39</v>
       </c>
@@ -1896,24 +1977,32 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="25"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
+      <c r="M14" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="23" t="s">
         <v>40</v>
       </c>
@@ -1921,9 +2010,15 @@
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="M15" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
     </row>
@@ -1932,11 +2027,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="23" t="s">
         <v>42</v>
       </c>
@@ -1944,9 +2039,15 @@
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="M16" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
     </row>
@@ -1964,18 +2065,24 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
@@ -1989,18 +2096,24 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
@@ -2014,18 +2127,24 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
@@ -2039,68 +2158,86 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="32"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
@@ -2114,24 +2251,32 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="41"/>
     </row>
     <row r="24" spans="1:17" ht="56.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="23" t="s">
@@ -2141,13 +2286,13 @@
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2158,7 +2303,7 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="23" t="s">
         <v>58</v>
       </c>
@@ -2166,13 +2311,13 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2183,7 +2328,7 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="23" t="s">
         <v>59</v>
       </c>
@@ -2191,13 +2336,13 @@
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2206,24 +2351,33 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
@@ -2240,33 +2394,24 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5286D5E-F264-4710-819D-0E14B103A524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC75F10-64DD-4F41-B43C-0C2EFD484845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,16 +345,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトル以下の表示</t>
     <rPh sb="4" eb="6">
       <t>イカ</t>
@@ -426,16 +416,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メニュー画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -643,10 +623,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -671,6 +647,36 @@
     <rPh sb="4" eb="5">
       <t>チガ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン後メニュー画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニュー画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1082,6 +1088,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1092,11 +1107,26 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1106,6 +1136,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1113,96 +1209,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1557,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1574,25 +1580,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,23 +1613,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1638,50 +1644,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1690,20 +1696,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1713,32 +1719,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1746,30 +1752,30 @@
         <v>24</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+        <v>64</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1777,30 +1783,30 @@
         <v>24</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+        <v>59</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>24</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -1818,18 +1824,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>24</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -1847,18 +1853,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>24</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1876,18 +1882,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>24</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1905,18 +1911,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
@@ -1924,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1934,18 +1940,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
@@ -1953,30 +1959,30 @@
         <v>24</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17" ht="23.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
@@ -1984,32 +1990,32 @@
         <v>24</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="27"/>
+        <v>64</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>24</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2027,18 +2033,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2058,20 +2064,20 @@
       <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
+      <c r="C17" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
@@ -2079,30 +2085,30 @@
         <v>24</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+        <v>59</v>
+      </c>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="C18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
@@ -2110,30 +2116,30 @@
         <v>24</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+        <v>59</v>
+      </c>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
+      <c r="C19" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2141,30 +2147,30 @@
         <v>24</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
+        <v>59</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="C20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2172,30 +2178,30 @@
         <v>24</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+        <v>59</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2203,30 +2209,30 @@
         <v>24</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
+      <c r="C22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2234,30 +2240,30 @@
         <v>24</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
+        <v>59</v>
+      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2265,34 +2271,34 @@
         <v>24</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="56.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="60" t="s">
+      <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
+      <c r="C24" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2303,21 +2309,21 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2328,21 +2334,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="62"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2351,33 +2357,24 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
@@ -2394,24 +2391,33 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC75F10-64DD-4F41-B43C-0C2EFD484845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F0E646-BC58-43A0-9BC4-24F73E547582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>作成者</t>
   </si>
@@ -1088,23 +1088,116 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1115,100 +1208,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1563,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1580,25 +1580,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,23 +1613,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1644,50 +1644,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1696,20 +1696,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1719,32 +1719,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1754,28 +1754,28 @@
       <c r="O6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1785,28 +1785,28 @@
       <c r="O7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
@@ -1824,18 +1824,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
@@ -1853,18 +1853,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
@@ -1882,18 +1882,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
@@ -1911,18 +1911,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
@@ -1940,18 +1940,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
@@ -1961,28 +1961,28 @@
       <c r="O13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:17" ht="23.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
@@ -1992,30 +1992,30 @@
       <c r="O14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="26" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
@@ -2033,18 +2033,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
@@ -2064,20 +2064,20 @@
       <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="34" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
@@ -2087,28 +2087,28 @@
       <c r="O17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="34" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
@@ -2118,28 +2118,28 @@
       <c r="O18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="34" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2149,28 +2149,28 @@
       <c r="O19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="34" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2180,28 +2180,28 @@
       <c r="O20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2211,28 +2211,28 @@
       <c r="O21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2242,28 +2242,28 @@
       <c r="O22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="34" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2273,32 +2273,32 @@
       <c r="O23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="34" t="s">
+      <c r="P23" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="Q23" s="34"/>
+      <c r="Q23" s="41"/>
     </row>
     <row r="24" spans="1:17" ht="56.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2309,24 +2309,30 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
@@ -2334,21 +2340,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2357,24 +2363,33 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
@@ -2391,33 +2406,24 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F0E646-BC58-43A0-9BC4-24F73E547582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300586C4-BBB4-4728-9848-5C6D3DDF8992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>作成者</t>
   </si>
@@ -542,16 +542,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -676,7 +666,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×〇</t>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー画面に遷移してしまう</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「システムエラー画面」に遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1088,6 +1098,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1098,11 +1117,26 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1112,6 +1146,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1119,96 +1219,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1563,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:O25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1580,25 +1590,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,23 +1623,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1644,50 +1654,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1696,20 +1706,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1719,32 +1729,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1752,30 +1762,30 @@
         <v>24</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1783,30 +1793,30 @@
         <v>24</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
@@ -1814,7 +1824,7 @@
         <v>24</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -1824,18 +1834,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
@@ -1843,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -1853,18 +1863,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
@@ -1872,7 +1882,7 @@
         <v>24</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1882,18 +1892,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
@@ -1901,7 +1911,7 @@
         <v>24</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1911,18 +1921,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
@@ -1930,7 +1940,7 @@
         <v>24</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1940,18 +1950,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
@@ -1959,30 +1969,30 @@
         <v>24</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17" ht="23.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
@@ -1990,32 +2000,32 @@
         <v>24</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="23" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
@@ -2023,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2033,18 +2043,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2064,20 +2074,20 @@
       <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="41" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
@@ -2085,30 +2095,30 @@
         <v>24</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="41" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
@@ -2116,30 +2126,30 @@
         <v>24</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="41" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2147,30 +2157,30 @@
         <v>24</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="41" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2178,30 +2188,30 @@
         <v>24</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2209,30 +2219,30 @@
         <v>24</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2240,30 +2250,30 @@
         <v>24</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2271,37 +2281,43 @@
         <v>24</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="56.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
@@ -2309,21 +2325,21 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
@@ -2331,7 +2347,7 @@
         <v>24</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
@@ -2340,56 +2356,55 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="16"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="Q26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
@@ -2406,24 +2421,33 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300586C4-BBB4-4728-9848-5C6D3DDF8992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D62B74-074B-469B-A5C9-8F9896610649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,16 +603,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのままの画面が表示されること</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -686,6 +676,16 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニューの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:L24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1762,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -1793,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
@@ -1824,7 +1824,7 @@
         <v>24</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -1853,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -1882,7 +1882,7 @@
         <v>24</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1911,7 +1911,7 @@
         <v>24</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1940,7 +1940,7 @@
         <v>24</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1969,7 +1969,7 @@
         <v>24</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
@@ -2000,10 +2000,10 @@
         <v>24</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="32" t="s">
         <v>58</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>59</v>
       </c>
       <c r="Q14" s="33"/>
     </row>
@@ -2033,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2062,7 +2062,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2095,7 +2095,7 @@
         <v>24</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
@@ -2126,7 +2126,7 @@
         <v>24</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P18" s="34"/>
       <c r="Q18" s="34"/>
@@ -2157,7 +2157,7 @@
         <v>24</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P19" s="34"/>
       <c r="Q19" s="34"/>
@@ -2188,7 +2188,7 @@
         <v>24</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
@@ -2219,7 +2219,7 @@
         <v>24</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
@@ -2237,7 +2237,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
@@ -2250,7 +2250,7 @@
         <v>24</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
@@ -2268,7 +2268,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
       <c r="H23" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
@@ -2281,10 +2281,10 @@
         <v>24</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="34"/>
     </row>
@@ -2303,7 +2303,7 @@
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
       <c r="H24" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -2316,7 +2316,7 @@
         <v>24</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
@@ -2347,7 +2347,7 @@
         <v>24</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
@@ -2365,7 +2365,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="28"/>
       <c r="H26" s="29" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -2378,10 +2378,10 @@
         <v>24</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="Q26" s="17"/>
     </row>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D62B74-074B-469B-A5C9-8F9896610649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D9284F-B355-4D8C-89F0-D8C4298EC2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>作成者</t>
   </si>
@@ -656,20 +656,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー画面に遷移してしまう</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「システムエラー画面」に遷移する</t>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
@@ -686,6 +672,19 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー画面に遷移してしまう（修正済み）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シュウセイズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1098,23 +1097,116 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1125,100 +1217,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1573,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1590,25 +1589,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,23 +1622,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1654,50 +1653,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1706,20 +1705,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1729,32 +1728,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1764,28 +1763,28 @@
       <c r="O6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1795,28 +1794,28 @@
       <c r="O7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
@@ -1834,18 +1833,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
@@ -1863,18 +1862,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
@@ -1892,18 +1891,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
@@ -1921,18 +1920,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
@@ -1950,18 +1949,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
@@ -1971,28 +1970,28 @@
       <c r="O13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:17" ht="23.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
@@ -2002,30 +2001,30 @@
       <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="26" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
@@ -2043,18 +2042,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
@@ -2074,20 +2073,20 @@
       <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="34" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
@@ -2097,28 +2096,28 @@
       <c r="O17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="34" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
@@ -2128,28 +2127,28 @@
       <c r="O18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="34" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2159,28 +2158,28 @@
       <c r="O19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="34" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2190,28 +2189,28 @@
       <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2221,28 +2220,28 @@
       <c r="O21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2252,28 +2251,28 @@
       <c r="O22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="34" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2283,32 +2282,32 @@
       <c r="O23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="34" t="s">
+      <c r="P23" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="34"/>
+      <c r="Q23" s="41"/>
     </row>
     <row r="24" spans="1:17" ht="56.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
@@ -2325,21 +2324,21 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
@@ -2356,21 +2355,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
@@ -2378,33 +2377,43 @@
         <v>24</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q26" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="P26" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q26" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
+  <mergeCells count="62">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
@@ -2421,33 +2430,24 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D9284F-B355-4D8C-89F0-D8C4298EC2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D21B2-913C-4CD3-A3F2-D4F11DAF2A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>作成者</t>
   </si>
@@ -685,6 +685,13 @@
     </rPh>
     <rPh sb="14" eb="17">
       <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1049,9 +1056,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1073,9 +1077,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1096,6 +1097,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1572,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1583,7 +1590,8 @@
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
-    <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" style="4" customWidth="1"/>
+    <col min="14" max="15" width="8.453125" style="4" customWidth="1"/>
     <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
@@ -1639,16 +1647,16 @@
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
       <c r="M2" s="55"/>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1699,10 +1707,10 @@
       <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -1719,13 +1727,13 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="P5" s="37" t="s">
@@ -1754,13 +1762,13 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="15">
+      <c r="M6" s="22">
         <v>45504</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P6" s="41"/>
@@ -1785,13 +1793,13 @@
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="15">
+      <c r="M7" s="22">
         <v>45504</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P7" s="41"/>
@@ -1801,7 +1809,7 @@
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="28" t="s">
         <v>29</v>
       </c>
@@ -1816,23 +1824,23 @@
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="15">
+      <c r="M8" s="22">
         <v>45504</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -1845,23 +1853,23 @@
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="15">
+      <c r="M9" s="22">
         <v>45504</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="31"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -1874,23 +1882,23 @@
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
-      <c r="M10" s="15">
+      <c r="M10" s="22">
         <v>45504</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -1903,23 +1911,23 @@
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="15">
+      <c r="M11" s="22">
         <v>45504</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -1932,23 +1940,23 @@
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="15">
+      <c r="M12" s="22">
         <v>45504</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -1961,13 +1969,13 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="25"/>
-      <c r="M13" s="15">
+      <c r="M13" s="22">
         <v>45504</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P13" s="26"/>
@@ -1977,7 +1985,7 @@
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="60" t="s">
         <v>37</v>
       </c>
@@ -1992,13 +2000,13 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="25"/>
-      <c r="M14" s="15">
+      <c r="M14" s="22">
         <v>45504</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P14" s="26" t="s">
@@ -2010,7 +2018,7 @@
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
@@ -2025,23 +2033,23 @@
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
-      <c r="M15" s="15">
+      <c r="M15" s="22">
         <v>45504</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="34"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -2054,23 +2062,23 @@
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
-      <c r="M16" s="15">
+      <c r="M16" s="22">
         <v>45504</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -2087,13 +2095,13 @@
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
-      <c r="M17" s="15">
+      <c r="M17" s="22">
         <v>45504</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P17" s="41"/>
@@ -2103,7 +2111,7 @@
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="23" t="s">
         <v>44</v>
       </c>
@@ -2118,13 +2126,13 @@
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
-      <c r="M18" s="15">
+      <c r="M18" s="22">
         <v>45504</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P18" s="41"/>
@@ -2134,7 +2142,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="23" t="s">
         <v>45</v>
       </c>
@@ -2149,14 +2157,14 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
-      <c r="M19" s="15">
+      <c r="M19" s="22">
         <v>45504</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>57</v>
+      <c r="O19" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="P19" s="41"/>
       <c r="Q19" s="41"/>
@@ -2165,7 +2173,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
@@ -2180,13 +2188,13 @@
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
-      <c r="M20" s="15">
+      <c r="M20" s="22">
         <v>45504</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P20" s="41"/>
@@ -2196,7 +2204,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="43" t="s">
         <v>42</v>
       </c>
@@ -2211,13 +2219,13 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
-      <c r="M21" s="15">
+      <c r="M21" s="22">
         <v>45504</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P21" s="26"/>
@@ -2227,7 +2235,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="43" t="s">
         <v>40</v>
       </c>
@@ -2242,13 +2250,13 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
-      <c r="M22" s="15">
+      <c r="M22" s="22">
         <v>45504</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P22" s="41"/>
@@ -2258,7 +2266,7 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="23" t="s">
         <v>36</v>
       </c>
@@ -2273,13 +2281,13 @@
       <c r="J23" s="41"/>
       <c r="K23" s="41"/>
       <c r="L23" s="41"/>
-      <c r="M23" s="15">
+      <c r="M23" s="22">
         <v>45504</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P23" s="41" t="s">
@@ -2308,17 +2316,17 @@
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
       <c r="L24" s="62"/>
-      <c r="M24" s="15">
+      <c r="M24" s="22">
         <v>45504</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" ht="58.5" customHeight="1">
       <c r="A25" s="6">
@@ -2339,17 +2347,17 @@
       <c r="J25" s="61"/>
       <c r="K25" s="61"/>
       <c r="L25" s="62"/>
-      <c r="M25" s="15">
+      <c r="M25" s="22">
         <v>45504</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17" ht="58.5" customHeight="1">
       <c r="A26" s="6">
@@ -2370,13 +2378,13 @@
       <c r="J26" s="61"/>
       <c r="K26" s="61"/>
       <c r="L26" s="62"/>
-      <c r="M26" s="15">
+      <c r="M26" s="22">
         <v>45504</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P26" s="60" t="s">

--- a/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP008商品削除(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D21B2-913C-4CD3-A3F2-D4F11DAF2A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3065339-0FAE-42FB-9A90-26026B8276B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>作成者</t>
   </si>
@@ -648,16 +648,6 @@
       <t>マエ</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「システムエラー画面」に遷移する</t>
-    <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
     <rPh sb="12" eb="14">
@@ -1104,6 +1094,15 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1114,11 +1113,26 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1128,6 +1142,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1135,96 +1215,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1579,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1597,25 +1587,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,23 +1620,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1661,50 +1651,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1713,20 +1703,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1736,32 +1726,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="22">
         <v>45504</v>
       </c>
@@ -1771,28 +1761,28 @@
       <c r="O6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="22">
         <v>45504</v>
       </c>
@@ -1802,28 +1792,28 @@
       <c r="O7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="22">
         <v>45504</v>
       </c>
@@ -1841,18 +1831,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="22">
         <v>45504</v>
       </c>
@@ -1870,18 +1860,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="22">
         <v>45504</v>
       </c>
@@ -1899,18 +1889,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="22">
         <v>45504</v>
       </c>
@@ -1928,18 +1918,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="22">
         <v>45504</v>
       </c>
@@ -1957,18 +1947,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="22">
         <v>45504</v>
       </c>
@@ -1978,28 +1968,28 @@
       <c r="O13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="27"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17" ht="23.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="22">
         <v>45504</v>
       </c>
@@ -2009,30 +1999,30 @@
       <c r="O14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="27"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="23" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="22">
         <v>45504</v>
       </c>
@@ -2050,18 +2040,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="22">
         <v>45504</v>
       </c>
@@ -2081,20 +2071,20 @@
       <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="41" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="22">
         <v>45504</v>
       </c>
@@ -2104,28 +2094,28 @@
       <c r="O17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="41" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="22">
         <v>45504</v>
       </c>
@@ -2135,28 +2125,28 @@
       <c r="O18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="41" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="22">
         <v>45504</v>
       </c>
@@ -2164,30 +2154,30 @@
         <v>24</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
+        <v>64</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="41" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="22">
         <v>45504</v>
       </c>
@@ -2197,28 +2187,28 @@
       <c r="O20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="22">
         <v>45504</v>
       </c>
@@ -2228,28 +2218,28 @@
       <c r="O21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="22">
         <v>45504</v>
       </c>
@@ -2259,28 +2249,28 @@
       <c r="O22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="41" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="22">
         <v>45504</v>
       </c>
@@ -2290,32 +2280,32 @@
       <c r="O23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="41" t="s">
+      <c r="P23" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="56.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="60" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="22">
         <v>45504</v>
       </c>
@@ -2332,21 +2322,21 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="60" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="22">
         <v>45504</v>
       </c>
@@ -2363,21 +2353,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="62"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="22">
         <v>45504</v>
       </c>
@@ -2387,13 +2377,59 @@
       <c r="O26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P26" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q26" s="62"/>
+      <c r="P26" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H16:L16"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="H26:L26"/>
@@ -2410,52 +2446,6 @@
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
